--- a/网络构建及博弈均衡结果.xlsx
+++ b/网络构建及博弈均衡结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Manuscripts\Ongoing\2026.01 非合作合作序贯博弈\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35047\Desktop\博弈网络\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574A6D2D-6CD8-4923-B818-B94C3AC1BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803F3E88-CC1A-4277-A870-988529DC4515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="网络结构" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -134,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -418,15 +418,15 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -490,7 +490,8 @@
         <v>102.25</v>
       </c>
       <c r="I2" s="1">
-        <v>90.18</v>
+        <f>G2-H2</f>
+        <v>-90.18</v>
       </c>
       <c r="J2">
         <v>0.26279999999999998</v>
@@ -502,7 +503,7 @@
         <v>0.18418392709196355</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -528,7 +529,8 @@
         <v>135.88</v>
       </c>
       <c r="I3" s="1">
-        <v>129.76</v>
+        <f t="shared" ref="I3:I31" si="0">G3-H3</f>
+        <v>-129.75</v>
       </c>
       <c r="J3">
         <v>0.25580000000000003</v>
@@ -540,7 +542,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -566,7 +568,8 @@
         <v>122.2</v>
       </c>
       <c r="I4" s="1">
-        <v>113.1</v>
+        <f t="shared" si="0"/>
+        <v>-113.10000000000001</v>
       </c>
       <c r="J4">
         <v>0.25369999999999998</v>
@@ -578,7 +581,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -604,7 +607,8 @@
         <v>106.31</v>
       </c>
       <c r="I5" s="1">
-        <v>101.07</v>
+        <f t="shared" si="0"/>
+        <v>-101.07000000000001</v>
       </c>
       <c r="J5">
         <v>0.26250000000000001</v>
@@ -616,7 +620,7 @@
         <v>0.12290803645401824</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -642,7 +646,8 @@
         <v>119.05</v>
       </c>
       <c r="I6" s="1">
-        <v>106.62</v>
+        <f t="shared" si="0"/>
+        <v>-106.62</v>
       </c>
       <c r="J6">
         <v>0.25740000000000002</v>
@@ -654,7 +659,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -680,7 +685,8 @@
         <v>140.71</v>
       </c>
       <c r="I7" s="1">
-        <v>126.18</v>
+        <f t="shared" si="0"/>
+        <v>-126.18</v>
       </c>
       <c r="J7">
         <v>0.26369999999999999</v>
@@ -692,7 +698,7 @@
         <v>0.30709196354598173</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -718,7 +724,8 @@
         <v>106.69</v>
       </c>
       <c r="I8" s="1">
-        <v>100.9</v>
+        <f t="shared" si="0"/>
+        <v>-100.89999999999999</v>
       </c>
       <c r="J8">
         <v>0.26229999999999998</v>
@@ -730,7 +737,7 @@
         <v>0.12290803645401824</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -756,7 +763,8 @@
         <v>121.32</v>
       </c>
       <c r="I9" s="1">
-        <v>112.28</v>
+        <f t="shared" si="0"/>
+        <v>-112.27</v>
       </c>
       <c r="J9">
         <v>0.26019999999999999</v>
@@ -768,7 +776,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -794,7 +802,8 @@
         <v>105.71</v>
       </c>
       <c r="I10" s="1">
-        <v>97.59</v>
+        <f t="shared" si="0"/>
+        <v>-97.589999999999989</v>
       </c>
       <c r="J10">
         <v>0.27179999999999999</v>
@@ -806,7 +815,7 @@
         <v>0.12290803645401824</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -832,7 +841,8 @@
         <v>117.85</v>
       </c>
       <c r="I11" s="1">
-        <v>104.6</v>
+        <f t="shared" si="0"/>
+        <v>-104.61</v>
       </c>
       <c r="J11">
         <v>0.25990000000000002</v>
@@ -844,7 +854,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -870,7 +880,8 @@
         <v>121.9</v>
       </c>
       <c r="I12" s="1">
-        <v>110.88</v>
+        <f t="shared" si="0"/>
+        <v>-110.88000000000001</v>
       </c>
       <c r="J12">
         <v>0.26500000000000001</v>
@@ -882,7 +893,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -908,7 +919,8 @@
         <v>144.31</v>
       </c>
       <c r="I13" s="1">
-        <v>138.99</v>
+        <f t="shared" si="0"/>
+        <v>-138.99</v>
       </c>
       <c r="J13">
         <v>0.2465</v>
@@ -920,7 +932,7 @@
         <v>0.24563794531897265</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -946,7 +958,8 @@
         <v>124.67</v>
       </c>
       <c r="I14" s="1">
-        <v>111.59</v>
+        <f t="shared" si="0"/>
+        <v>-111.59</v>
       </c>
       <c r="J14">
         <v>0.25119999999999998</v>
@@ -958,7 +971,7 @@
         <v>0.24563794531897265</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -984,7 +997,8 @@
         <v>116.73</v>
       </c>
       <c r="I15" s="1">
-        <v>109.3</v>
+        <f t="shared" si="0"/>
+        <v>-109.30000000000001</v>
       </c>
       <c r="J15">
         <v>0.2419</v>
@@ -996,7 +1010,7 @@
         <v>0.15354598177299086</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1022,7 +1036,8 @@
         <v>120.98</v>
       </c>
       <c r="I16" s="1">
-        <v>106.04</v>
+        <f t="shared" si="0"/>
+        <v>-106.03</v>
       </c>
       <c r="J16">
         <v>0.25559999999999999</v>
@@ -1034,7 +1049,7 @@
         <v>0.24563794531897265</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1060,7 +1075,8 @@
         <v>73.39</v>
       </c>
       <c r="I17" s="1">
-        <v>22.87</v>
+        <f t="shared" si="0"/>
+        <v>-22.869999999999997</v>
       </c>
       <c r="J17">
         <v>0.29339999999999999</v>
@@ -1072,7 +1088,7 @@
         <v>0.30709196354598173</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1098,7 +1114,8 @@
         <v>62.49</v>
       </c>
       <c r="I18" s="1">
-        <v>8.52</v>
+        <f t="shared" si="0"/>
+        <v>-8.5300000000000011</v>
       </c>
       <c r="J18">
         <v>0.27810000000000001</v>
@@ -1110,7 +1127,7 @@
         <v>0.2764540182270091</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1136,7 +1153,8 @@
         <v>64.489999999999995</v>
       </c>
       <c r="I19" s="1">
-        <v>15.56</v>
+        <f t="shared" si="0"/>
+        <v>-15.559999999999995</v>
       </c>
       <c r="J19">
         <v>0.28589999999999999</v>
@@ -1148,7 +1166,7 @@
         <v>0.2764540182270091</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1174,7 +1192,8 @@
         <v>72.790000000000006</v>
       </c>
       <c r="I20" s="1">
-        <v>29.62</v>
+        <f t="shared" si="0"/>
+        <v>-29.63000000000001</v>
       </c>
       <c r="J20">
         <v>0.29020000000000001</v>
@@ -1186,7 +1205,7 @@
         <v>0.2764540182270091</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1212,7 +1231,8 @@
         <v>69.23</v>
       </c>
       <c r="I21" s="1">
-        <v>27.36</v>
+        <f t="shared" si="0"/>
+        <v>-27.360000000000007</v>
       </c>
       <c r="J21">
         <v>0.28410000000000002</v>
@@ -1224,7 +1244,7 @@
         <v>0.24563794531897265</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1250,7 +1270,8 @@
         <v>78.61</v>
       </c>
       <c r="I22" s="1">
-        <v>20.29</v>
+        <f t="shared" si="0"/>
+        <v>-20.29</v>
       </c>
       <c r="J22">
         <v>0.30249999999999999</v>
@@ -1262,7 +1283,7 @@
         <v>0.33790803645401823</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1288,7 +1309,8 @@
         <v>60.51</v>
       </c>
       <c r="I23" s="1">
-        <v>8.8800000000000008</v>
+        <f t="shared" si="0"/>
+        <v>-8.8799999999999955</v>
       </c>
       <c r="J23">
         <v>0.28999999999999998</v>
@@ -1300,7 +1322,7 @@
         <v>0.2764540182270091</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1326,7 +1348,8 @@
         <v>88.36</v>
       </c>
       <c r="I24" s="1">
-        <v>18.37</v>
+        <f t="shared" si="0"/>
+        <v>-18.370000000000005</v>
       </c>
       <c r="J24">
         <v>0.2722</v>
@@ -1338,7 +1361,7 @@
         <v>0.39918392709196349</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1364,7 +1387,8 @@
         <v>79.260000000000005</v>
       </c>
       <c r="I25" s="1">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>-31.990000000000002</v>
       </c>
       <c r="J25">
         <v>0.32200000000000001</v>
@@ -1376,7 +1400,7 @@
         <v>0.2764540182270091</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1402,7 +1426,8 @@
         <v>81.66</v>
       </c>
       <c r="I26" s="1">
-        <v>35.299999999999997</v>
+        <f t="shared" si="0"/>
+        <v>-35.29</v>
       </c>
       <c r="J26">
         <v>0.27539999999999998</v>
@@ -1414,7 +1439,7 @@
         <v>0.30709196354598173</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1440,7 +1465,8 @@
         <v>72.14</v>
       </c>
       <c r="I27" s="1">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>-21</v>
       </c>
       <c r="J27">
         <v>0.2868</v>
@@ -1452,7 +1478,7 @@
         <v>0.30709196354598173</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1478,7 +1504,8 @@
         <v>10.59</v>
       </c>
       <c r="I28" s="1">
-        <v>-115.43</v>
+        <f t="shared" si="0"/>
+        <v>115.42999999999999</v>
       </c>
       <c r="J28">
         <v>0.33150000000000002</v>
@@ -1490,7 +1517,7 @@
         <v>0.33790803645401823</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1516,7 +1543,8 @@
         <v>19.850000000000001</v>
       </c>
       <c r="I29" s="1">
-        <v>-150.83000000000001</v>
+        <f t="shared" si="0"/>
+        <v>150.83000000000001</v>
       </c>
       <c r="J29">
         <v>0.33910000000000001</v>
@@ -1528,7 +1556,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1554,7 +1582,8 @@
         <v>17.84</v>
       </c>
       <c r="I30" s="1">
-        <v>-106.14</v>
+        <f t="shared" si="0"/>
+        <v>106.14</v>
       </c>
       <c r="J30">
         <v>0.32379999999999998</v>
@@ -1566,7 +1595,7 @@
         <v>0.33790803645401823</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1592,7 +1621,8 @@
         <v>24.23</v>
       </c>
       <c r="I31" s="1">
-        <v>-102.6</v>
+        <f t="shared" si="0"/>
+        <v>102.6</v>
       </c>
       <c r="J31">
         <v>0.32969999999999999</v>
@@ -1619,12 +1649,12 @@
       <selection activeCell="F2" sqref="F2:M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +1671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>28</v>
       </c>
@@ -1659,7 +1689,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>23</v>
       </c>
@@ -1677,7 +1707,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>30</v>
       </c>
@@ -1695,7 +1725,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>21</v>
       </c>
@@ -1713,7 +1743,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>27</v>
       </c>
@@ -1731,7 +1761,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>29</v>
       </c>
@@ -1749,7 +1779,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1767,7 +1797,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -1785,7 +1815,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>25</v>
       </c>
@@ -1803,7 +1833,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>26</v>
       </c>
@@ -1821,7 +1851,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>17</v>
       </c>
@@ -1839,7 +1869,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>18</v>
       </c>
@@ -1857,7 +1887,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>19</v>
       </c>
@@ -1875,7 +1905,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>22</v>
       </c>
@@ -1893,7 +1923,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>24</v>
       </c>
@@ -1911,7 +1941,7 @@
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -1929,7 +1959,7 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -1947,7 +1977,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1965,7 +1995,7 @@
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -1983,7 +2013,7 @@
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -2001,7 +2031,7 @@
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -2019,7 +2049,7 @@
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -2037,7 +2067,7 @@
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>8</v>
       </c>
@@ -2055,7 +2085,7 @@
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>10</v>
       </c>
@@ -2073,7 +2103,7 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>11</v>
       </c>
@@ -2091,7 +2121,7 @@
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -2109,7 +2139,7 @@
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>14</v>
       </c>
@@ -2127,7 +2157,7 @@
       </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -2145,7 +2175,7 @@
       </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>7</v>
       </c>
@@ -2163,7 +2193,7 @@
       </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>9</v>
       </c>

--- a/网络构建及博弈均衡结果.xlsx
+++ b/网络构建及博弈均衡结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35047\Desktop\博弈网络\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803F3E88-CC1A-4277-A870-988529DC4515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08030265-C2BA-4E44-B0E8-D6667461B2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,19 +71,15 @@
   </si>
   <si>
     <t>净流出值(r)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>碳边际减排成本μ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>其他企业所产生的边际减排效益η</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>讨价还价α</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -418,7 +414,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -487,11 +483,10 @@
         <v>12.07</v>
       </c>
       <c r="H2" s="1">
-        <v>102.25</v>
+        <v>31.574999999999999</v>
       </c>
       <c r="I2" s="1">
-        <f>G2-H2</f>
-        <v>-90.18</v>
+        <v>-19.504999999999999</v>
       </c>
       <c r="J2">
         <v>0.26279999999999998</v>
@@ -500,7 +495,7 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="L2" s="2">
-        <v>0.18418392709196355</v>
+        <v>0.184183927</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -526,11 +521,10 @@
         <v>6.13</v>
       </c>
       <c r="H3" s="1">
-        <v>135.88</v>
+        <v>55.116</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I31" si="0">G3-H3</f>
-        <v>-129.75</v>
+        <v>-48.985999999999997</v>
       </c>
       <c r="J3">
         <v>0.25580000000000003</v>
@@ -565,11 +559,10 @@
         <v>9.1</v>
       </c>
       <c r="H4" s="1">
-        <v>122.2</v>
+        <v>45.54</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>-113.10000000000001</v>
+        <v>-36.44</v>
       </c>
       <c r="J4">
         <v>0.25369999999999998</v>
@@ -604,11 +597,10 @@
         <v>5.24</v>
       </c>
       <c r="H5" s="1">
-        <v>106.31</v>
+        <v>34.417000000000002</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>-101.07000000000001</v>
+        <v>-29.177</v>
       </c>
       <c r="J5">
         <v>0.26250000000000001</v>
@@ -617,7 +609,7 @@
         <v>0.2414</v>
       </c>
       <c r="L5" s="2">
-        <v>0.12290803645401824</v>
+        <v>0.122908036</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -643,11 +635,10 @@
         <v>12.43</v>
       </c>
       <c r="H6" s="1">
-        <v>119.05</v>
+        <v>43.335000000000001</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>-106.62</v>
+        <v>-30.905000000000001</v>
       </c>
       <c r="J6">
         <v>0.25740000000000002</v>
@@ -682,11 +673,10 @@
         <v>14.53</v>
       </c>
       <c r="H7" s="1">
-        <v>140.71</v>
+        <v>58.497</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>-126.18</v>
+        <v>-43.966999999999999</v>
       </c>
       <c r="J7">
         <v>0.26369999999999999</v>
@@ -695,7 +685,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="L7" s="2">
-        <v>0.30709196354598173</v>
+        <v>0.307091964</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
@@ -721,11 +711,10 @@
         <v>5.79</v>
       </c>
       <c r="H8" s="1">
-        <v>106.69</v>
+        <v>34.683</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>-100.89999999999999</v>
+        <v>-28.893000000000001</v>
       </c>
       <c r="J8">
         <v>0.26229999999999998</v>
@@ -734,7 +723,7 @@
         <v>0.2414</v>
       </c>
       <c r="L8" s="2">
-        <v>0.12290803645401824</v>
+        <v>0.122908036</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
@@ -760,11 +749,10 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="H9" s="1">
-        <v>121.32</v>
+        <v>44.923999999999999</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>-112.27</v>
+        <v>-35.874000000000002</v>
       </c>
       <c r="J9">
         <v>0.26019999999999999</v>
@@ -799,11 +787,10 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="H10" s="1">
-        <v>105.71</v>
+        <v>33.997</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>-97.589999999999989</v>
+        <v>-25.876999999999999</v>
       </c>
       <c r="J10">
         <v>0.27179999999999999</v>
@@ -812,7 +799,7 @@
         <v>0.2414</v>
       </c>
       <c r="L10" s="2">
-        <v>0.12290803645401824</v>
+        <v>0.122908036</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -838,11 +825,10 @@
         <v>13.24</v>
       </c>
       <c r="H11" s="1">
-        <v>117.85</v>
+        <v>42.494999999999997</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>-104.61</v>
+        <v>-29.254999999999999</v>
       </c>
       <c r="J11">
         <v>0.25990000000000002</v>
@@ -877,11 +863,10 @@
         <v>11.02</v>
       </c>
       <c r="H12" s="1">
-        <v>121.9</v>
+        <v>45.33</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="0"/>
-        <v>-110.88000000000001</v>
+        <v>-34.31</v>
       </c>
       <c r="J12">
         <v>0.26500000000000001</v>
@@ -916,11 +901,10 @@
         <v>5.32</v>
       </c>
       <c r="H13" s="1">
-        <v>144.31</v>
+        <v>61.017000000000003</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
-        <v>-138.99</v>
+        <v>-55.697000000000003</v>
       </c>
       <c r="J13">
         <v>0.2465</v>
@@ -929,7 +913,7 @@
         <v>0.17249999999999999</v>
       </c>
       <c r="L13" s="2">
-        <v>0.24563794531897265</v>
+        <v>0.245637945</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
@@ -955,11 +939,10 @@
         <v>13.08</v>
       </c>
       <c r="H14" s="1">
-        <v>124.67</v>
+        <v>47.268999999999998</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="J14">
         <v>0.25119999999999998</v>
@@ -968,7 +951,7 @@
         <v>0.17249999999999999</v>
       </c>
       <c r="L14" s="2">
-        <v>0.24563794531897265</v>
+        <v>0.245637945</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
@@ -994,11 +977,10 @@
         <v>7.43</v>
       </c>
       <c r="H15" s="1">
-        <v>116.73</v>
+        <v>41.710999999999999</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="0"/>
-        <v>-109.30000000000001</v>
+        <v>-34.280999999999999</v>
       </c>
       <c r="J15">
         <v>0.2419</v>
@@ -1007,7 +989,7 @@
         <v>0.22420000000000001</v>
       </c>
       <c r="L15" s="2">
-        <v>0.15354598177299086</v>
+        <v>0.153545982</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
@@ -1033,11 +1015,10 @@
         <v>14.95</v>
       </c>
       <c r="H16" s="1">
-        <v>120.98</v>
+        <v>44.686</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="0"/>
-        <v>-106.03</v>
+        <v>-29.736000000000001</v>
       </c>
       <c r="J16">
         <v>0.25559999999999999</v>
@@ -1046,7 +1027,7 @@
         <v>0.17249999999999999</v>
       </c>
       <c r="L16" s="2">
-        <v>0.24563794531897265</v>
+        <v>0.245637945</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
@@ -1069,14 +1050,13 @@
         <v>72.19</v>
       </c>
       <c r="G17" s="1">
-        <v>50.52</v>
+        <v>40.520000000000003</v>
       </c>
       <c r="H17" s="1">
-        <v>73.39</v>
+        <v>53.39</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="0"/>
-        <v>-22.869999999999997</v>
+        <v>-12.87</v>
       </c>
       <c r="J17">
         <v>0.29339999999999999</v>
@@ -1085,7 +1065,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="L17" s="2">
-        <v>0.30709196354598173</v>
+        <v>0.307091964</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
@@ -1111,11 +1091,10 @@
         <v>53.96</v>
       </c>
       <c r="H18" s="1">
-        <v>62.49</v>
+        <v>42.49</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="0"/>
-        <v>-8.5300000000000011</v>
+        <v>11.47</v>
       </c>
       <c r="J18">
         <v>0.27810000000000001</v>
@@ -1124,7 +1103,7 @@
         <v>0.1552</v>
       </c>
       <c r="L18" s="2">
-        <v>0.2764540182270091</v>
+        <v>0.27645401800000002</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
@@ -1150,11 +1129,10 @@
         <v>48.93</v>
       </c>
       <c r="H19" s="1">
-        <v>64.489999999999995</v>
+        <v>44.49</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="0"/>
-        <v>-15.559999999999995</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="J19">
         <v>0.28589999999999999</v>
@@ -1163,7 +1141,7 @@
         <v>0.1552</v>
       </c>
       <c r="L19" s="2">
-        <v>0.2764540182270091</v>
+        <v>0.27645401800000002</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
@@ -1189,11 +1167,10 @@
         <v>43.16</v>
       </c>
       <c r="H20" s="1">
-        <v>72.790000000000006</v>
+        <v>52.79</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="0"/>
-        <v>-29.63000000000001</v>
+        <v>-9.6300000000000008</v>
       </c>
       <c r="J20">
         <v>0.29020000000000001</v>
@@ -1202,7 +1179,7 @@
         <v>0.1552</v>
       </c>
       <c r="L20" s="2">
-        <v>0.2764540182270091</v>
+        <v>0.27645401800000002</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
@@ -1228,11 +1205,10 @@
         <v>41.87</v>
       </c>
       <c r="H21" s="1">
-        <v>69.23</v>
+        <v>49.23</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="0"/>
-        <v>-27.360000000000007</v>
+        <v>-7.36</v>
       </c>
       <c r="J21">
         <v>0.28410000000000002</v>
@@ -1241,7 +1217,7 @@
         <v>0.17249999999999999</v>
       </c>
       <c r="L21" s="2">
-        <v>0.24563794531897265</v>
+        <v>0.245637945</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
@@ -1267,11 +1243,10 @@
         <v>58.32</v>
       </c>
       <c r="H22" s="1">
-        <v>78.61</v>
+        <v>58.61</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="0"/>
-        <v>-20.29</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="J22">
         <v>0.30249999999999999</v>
@@ -1280,7 +1255,7 @@
         <v>0.1207</v>
       </c>
       <c r="L22" s="2">
-        <v>0.33790803645401823</v>
+        <v>0.33790803600000002</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
@@ -1306,11 +1281,10 @@
         <v>51.63</v>
       </c>
       <c r="H23" s="1">
-        <v>60.51</v>
+        <v>40.51</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="0"/>
-        <v>-8.8799999999999955</v>
+        <v>11.12</v>
       </c>
       <c r="J23">
         <v>0.28999999999999998</v>
@@ -1319,7 +1293,7 @@
         <v>0.1552</v>
       </c>
       <c r="L23" s="2">
-        <v>0.2764540182270091</v>
+        <v>0.27645401800000002</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
@@ -1345,11 +1319,10 @@
         <v>69.989999999999995</v>
       </c>
       <c r="H24" s="1">
-        <v>88.36</v>
+        <v>68.36</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="0"/>
-        <v>-18.370000000000005</v>
+        <v>1.63</v>
       </c>
       <c r="J24">
         <v>0.2722</v>
@@ -1358,7 +1331,7 @@
         <v>8.6300000000000002E-2</v>
       </c>
       <c r="L24" s="2">
-        <v>0.39918392709196349</v>
+        <v>0.39918392699999999</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
@@ -1384,11 +1357,10 @@
         <v>47.27</v>
       </c>
       <c r="H25" s="1">
-        <v>79.260000000000005</v>
+        <v>59.26</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="0"/>
-        <v>-31.990000000000002</v>
+        <v>-11.99</v>
       </c>
       <c r="J25">
         <v>0.32200000000000001</v>
@@ -1397,7 +1369,7 @@
         <v>0.1552</v>
       </c>
       <c r="L25" s="2">
-        <v>0.2764540182270091</v>
+        <v>0.27645401800000002</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
@@ -1423,11 +1395,10 @@
         <v>46.37</v>
       </c>
       <c r="H26" s="1">
-        <v>81.66</v>
+        <v>61.66</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="0"/>
-        <v>-35.29</v>
+        <v>-15.29</v>
       </c>
       <c r="J26">
         <v>0.27539999999999998</v>
@@ -1436,7 +1407,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="L26" s="2">
-        <v>0.30709196354598173</v>
+        <v>0.307091964</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
@@ -1462,11 +1433,10 @@
         <v>51.14</v>
       </c>
       <c r="H27" s="1">
-        <v>72.14</v>
+        <v>52.14</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>-1</v>
       </c>
       <c r="J27">
         <v>0.2868</v>
@@ -1475,7 +1445,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="L27" s="2">
-        <v>0.30709196354598173</v>
+        <v>0.307091964</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
@@ -1498,14 +1468,13 @@
         <v>31.75</v>
       </c>
       <c r="G28" s="1">
-        <v>126.02</v>
+        <v>66.02</v>
       </c>
       <c r="H28" s="1">
         <v>10.59</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="0"/>
-        <v>115.42999999999999</v>
+        <v>55.43</v>
       </c>
       <c r="J28">
         <v>0.33150000000000002</v>
@@ -1514,7 +1483,7 @@
         <v>0.1207</v>
       </c>
       <c r="L28" s="2">
-        <v>0.33790803645401823</v>
+        <v>0.33790803600000002</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
@@ -1537,14 +1506,13 @@
         <v>39.380000000000003</v>
       </c>
       <c r="G29" s="1">
-        <v>170.68</v>
+        <v>110.68</v>
       </c>
       <c r="H29" s="1">
         <v>19.850000000000001</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="0"/>
-        <v>150.83000000000001</v>
+        <v>90.83</v>
       </c>
       <c r="J29">
         <v>0.33910000000000001</v>
@@ -1576,14 +1544,13 @@
         <v>34.5</v>
       </c>
       <c r="G30" s="1">
-        <v>123.98</v>
+        <v>63.98</v>
       </c>
       <c r="H30" s="1">
         <v>17.84</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="0"/>
-        <v>106.14</v>
+        <v>46.14</v>
       </c>
       <c r="J30">
         <v>0.32379999999999998</v>
@@ -1592,7 +1559,7 @@
         <v>0.1207</v>
       </c>
       <c r="L30" s="2">
-        <v>0.33790803645401823</v>
+        <v>0.33790803600000002</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
@@ -1615,14 +1582,13 @@
         <v>36.04</v>
       </c>
       <c r="G31" s="1">
-        <v>126.83</v>
+        <v>66.83</v>
       </c>
       <c r="H31" s="1">
         <v>24.23</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="0"/>
-        <v>102.6</v>
+        <v>42.6</v>
       </c>
       <c r="J31">
         <v>0.32969999999999999</v>
@@ -1631,7 +1597,7 @@
         <v>0.10349999999999999</v>
       </c>
       <c r="L31" s="2">
-        <v>0.36854598177299092</v>
+        <v>0.36854598199999999</v>
       </c>
     </row>
   </sheetData>
